--- a/COMPRAS_itens_cotacao.xlsx
+++ b/COMPRAS_itens_cotacao.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t xml:space="preserve">seq</t>
   </si>
@@ -31,6 +31,9 @@
     <t xml:space="preserve">seq_item</t>
   </si>
   <si>
+    <t xml:space="preserve">descricao_item</t>
+  </si>
+  <si>
     <t xml:space="preserve">valor_unitario</t>
   </si>
   <si>
@@ -38,6 +41,15 @@
   </si>
   <si>
     <t xml:space="preserve">desconto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item 12</t>
   </si>
 </sst>
 </file>
@@ -52,6 +64,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -111,8 +124,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -133,40 +150,251 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="12.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="10.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="8.95"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="0" t="s">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
-        <v>5</v>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/COMPRAS_itens_cotacao.xlsx
+++ b/COMPRAS_itens_cotacao.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t xml:space="preserve">seq</t>
   </si>
@@ -43,13 +43,155 @@
     <t xml:space="preserve">desconto</t>
   </si>
   <si>
-    <t xml:space="preserve">Item 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Item 11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Item 12</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Agua mineral 20l </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">DA GUARDA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Agua mineral copo 200ml </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">DA GUARDA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Agua mineral 500ml </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">DA GUARDA </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">12 un</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Resma papel A4 branco 75g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borracha branca FABER CASTELL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marca texto amarelo MASTERPRINT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gramp 26/6 CIS 500 un</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grampo trilho plastico DELLO 50 un</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copo descartavel 180ml COPOSUL 100 un</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Filtro de papel 103 IGUACU </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">30 un </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Sabao em po Brilhante 1,6kg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saco lixo MS 40l 100 un</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pano multiuso MRPLUS 5 un</t>
+  </si>
+  <si>
+    <t xml:space="preserve">papel higienico PALOMA 16 un</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saca alvejada MARTIM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plastico 4 furos grosso oficio DAC 50 un</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saco lixo 100l MS 100 un</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Papel toalha 21x21 LIDER 4800 un</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bloco adesivo 38x51 BRW 4 un 100 fls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arquivo morto multionda POLIBRAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Difusor ambiente 250ml Bom Humor HOME BRISE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desodorizador lavanda 250ml PURO AR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tesoura 24,5 cabo emborrachado BRW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prato descartavel PR15 TOTALPLAST 10 un</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pilha alcalina AA ELGIN 2 un</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pilha alcalina AAA ELGIN 2 un</t>
   </si>
 </sst>
 </file>
@@ -59,7 +201,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -80,6 +222,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -150,10 +297,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5:G7"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -161,7 +308,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="42.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="12.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="10.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="8.95"/>
@@ -194,22 +341,22 @@
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="n">
+      <c r="B2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="F2" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="F2" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1" t="n">
+      <c r="G2" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -217,22 +364,22 @@
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="B3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="1" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="F3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G3" s="1" t="n">
+      <c r="E3" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -244,16 +391,16 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>9.99</v>
+        <v>20</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>0</v>
@@ -267,19 +414,19 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="E5" s="1" t="n">
-        <v>2</v>
+        <v>22.53</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -287,22 +434,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="E6" s="1" t="n">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -310,16 +457,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="E7" s="1" t="n">
-        <v>8.5</v>
+        <v>1.3</v>
       </c>
       <c r="F7" s="1" t="n">
         <v>5</v>
@@ -336,16 +483,16 @@
         <v>3</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>1.99</v>
+        <v>6.9</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>0</v>
@@ -359,19 +506,19 @@
         <v>3</v>
       </c>
       <c r="C9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="1" t="n">
-        <v>40</v>
-      </c>
       <c r="F9" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -382,19 +529,410 @@
         <v>3</v>
       </c>
       <c r="C10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="1" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F10" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G10" s="1" t="n">
-        <v>2</v>
+      <c r="B13" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G15" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G16" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G17" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G19" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G20" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="G21" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>69.9</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="1" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G23" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="F24" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G25" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" s="1" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G26" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="1" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G27" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
